--- a/data/trans_dic/P16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,17; 1,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,22; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,55; 6,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,96; 3,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,45; 4,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,55; 5,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,48; 3,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,79; 2,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,82; 2,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,38; 3,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,26; 1,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,57; 2,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,36; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,04; 2,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,09; 6,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,71; 7,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,48; 4,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,55; 5,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,77; 3,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,34; 4,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,2; 2,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,96; 2,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,23; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,26; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,16; 1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,45; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,99; 4,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,07; 7,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,86; 5,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,72; 3,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,9; 3,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,46; 4,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,61; 3,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,27; 2,74</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,74; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,34; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,38; 2,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,18; 3,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,61; 6,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,83; 6,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,59; 5,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,88; 6,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,98; 4,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,71; 3,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,75; 3,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,78; 4,46</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,71; 5,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,19; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,66; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,4; 5,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>4,78; 9,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,04; 8,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,38; 6,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,26; 8,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,64; 7,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,34; 4,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,85; 4,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,32; 6,46</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,99; 8,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,92; 5,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,92; 4,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,49; 4,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,08; 11,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,09; 12,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,39; 8,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,53; 9,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,25; 9,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,91; 8,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,62; 6,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,69; 7,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,74; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,93; 1,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,94; 1,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,52; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,22; 6,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,51; 5,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,37; 4,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,26; 4,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,39; 3,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,28; 4,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,83</t>
+          <t>0,55; 5,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,17</t>
+          <t>0,34; 2,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,11</t>
+          <t>1,3; 4,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,93</t>
+          <t>0,89; 2,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,57</t>
+          <t>0,44; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,97</t>
+          <t>1,74; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,74</t>
+          <t>1,26; 2,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,66</t>
+          <t>0,62; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,44</t>
+          <t>3,82; 6,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,46</t>
+          <t>1,82; 4,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,31</t>
+          <t>2,47; 5,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,41</t>
+          <t>5,32; 8,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,46</t>
+          <t>4,38; 6,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,46</t>
+          <t>2,37; 7,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,69</t>
+          <t>1,63; 6,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,57</t>
+          <t>0,88; 3,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,87</t>
+          <t>2,15; 5,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,61</t>
+          <t>7,86; 14,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,64</t>
+          <t>5,26; 11,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,19</t>
+          <t>3,69; 8,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,61</t>
+          <t>1,49; 6,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,32</t>
+          <t>5,85; 10,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,87</t>
+          <t>4,2; 8,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,02</t>
+          <t>2,77; 5,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,13</t>
+          <t>2,02; 5,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,89; 12,84</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 7,93</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 6,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 5,56</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 10,85</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 15,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 9,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 13,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 10,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 11,27</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 7,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 9,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,74; 2,86</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,93; 1,83</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,94; 1,68</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 2,45</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,52; 6,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,22; 6,9</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,48; 4,84</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 5,86</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 5,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,37; 4,37</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>3,26; 4,22</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,39; 3,16</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 4,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 3,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,48</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,19</t>
+          <t>0,21; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,2</t>
+          <t>2,63; 6,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,98</t>
+          <t>0,93; 3,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,94</t>
+          <t>1,69; 4,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,98</t>
+          <t>0,52; 6,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,42</t>
+          <t>1,46; 3,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,39</t>
+          <t>0,79; 2,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,53</t>
+          <t>0,81; 2,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,99</t>
+          <t>0,38; 3,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,54</t>
+          <t>0,26; 1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,82</t>
+          <t>0,67; 2,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,03</t>
+          <t>0,33; 2,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,41</t>
+          <t>0,04; 2,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,52</t>
+          <t>3,23; 6,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,79</t>
+          <t>3,83; 7,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,02</t>
+          <t>1,47; 4,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,87</t>
+          <t>1,35; 5,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,53</t>
+          <t>1,77; 3,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,44</t>
+          <t>2,37; 4,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,75</t>
+          <t>1,15; 2,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,89</t>
+          <t>0,96; 2,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,77</t>
+          <t>1,14; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,61</t>
+          <t>0,27; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,5</t>
+          <t>0,16; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,49</t>
+          <t>0,54; 2,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,67</t>
+          <t>2,06; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,81</t>
+          <t>4,14; 7,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,84</t>
+          <t>2,7; 5,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,01</t>
+          <t>1,63; 3,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,74</t>
+          <t>1,9; 3,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,47</t>
+          <t>2,4; 4,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,25</t>
+          <t>1,54; 3,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,73</t>
+          <t>1,33; 2,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,4</t>
+          <t>0,76; 3,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,89</t>
+          <t>0,32; 1,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,21</t>
+          <t>0,34; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,94</t>
+          <t>0,66; 2,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,36</t>
+          <t>2,64; 6,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,62</t>
+          <t>2,61; 6,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,91</t>
+          <t>2,66; 6,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,46</t>
+          <t>3,68; 6,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,17</t>
+          <t>1,95; 3,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,8</t>
+          <t>1,82; 3,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,61</t>
+          <t>1,73; 3,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,08</t>
+          <t>1,88; 4,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,73</t>
+          <t>1,47; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,88</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,49</t>
+          <t>0,66; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,52</t>
+          <t>2,5; 5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,52</t>
+          <t>4,65; 9,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,36</t>
+          <t>3,93; 8,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,01</t>
+          <t>2,44; 5,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,51</t>
+          <t>5,53; 8,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,05</t>
+          <t>3,69; 7,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,93</t>
+          <t>2,35; 4,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,23</t>
+          <t>1,79; 3,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,6</t>
+          <t>4,4; 6,57</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,3</t>
+          <t>2,15; 7,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,5</t>
+          <t>1,59; 6,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,89</t>
+          <t>0,91; 4,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,32</t>
+          <t>2,12; 5,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,01</t>
+          <t>7,79; 14,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,63</t>
+          <t>5,12; 11,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,52</t>
+          <t>3,8; 8,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,88</t>
+          <t>1,75; 7,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,3</t>
+          <t>5,77; 9,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,0</t>
+          <t>4,11; 8,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,86</t>
+          <t>2,65; 5,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,44</t>
+          <t>2,19; 5,44</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,84</t>
+          <t>5,1; 13,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,93</t>
+          <t>1,33; 7,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,72</t>
+          <t>2,33; 6,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,56</t>
+          <t>2,27; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,85</t>
+          <t>4,68; 10,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,97</t>
+          <t>9,17; 16,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,73</t>
+          <t>4,06; 9,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,18</t>
+          <t>9,0; 13,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,54</t>
+          <t>5,68; 10,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,27</t>
+          <t>6,68; 11,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,83</t>
+          <t>3,83; 7,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,78</t>
+          <t>6,52; 9,59</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,86</t>
+          <t>1,79; 2,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,83</t>
+          <t>1,0; 1,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,68</t>
+          <t>0,93; 1,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,45</t>
+          <t>1,47; 2,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,13</t>
+          <t>4,56; 6,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,9</t>
+          <t>5,23; 6,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,84</t>
+          <t>3,49; 4,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,7</t>
+          <t>4,07; 5,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,37</t>
+          <t>3,31; 4,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,22</t>
+          <t>3,26; 4,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,16</t>
+          <t>2,35; 3,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,95</t>
+          <t>2,98; 4,0</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido reconstituyentes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2731</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19091</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11558</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6728</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21822</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12884</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12490</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8533</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>850; 8273</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>959; 9169</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4767</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9686</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12281; 29743</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3977; 16813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6682; 19744</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1618; 19004</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14021; 32612</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6967; 20998</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6585; 19841</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2736; 21838</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5947</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28783</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33265</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14998</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13809</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34346</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42818</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20944</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15700</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1922; 11894</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4629; 18213</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1973; 12562</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>166; 8681</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20222; 41293</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23315; 47212</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8304; 23264</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6897; 26091</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24069; 48710</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30763; 57965</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13287; 31527</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8961; 26419</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13866</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4905</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4095</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6610</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22128</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40482</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26972</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14263</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35995</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45387</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31067</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20873</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7239; 23382</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1809; 11069</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1071; 10789</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2904; 13961</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14186; 32872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29203; 54341</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17875; 39248</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8848; 20961</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25255; 49516</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33272; 60483</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20535; 42940</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14374; 30403</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8697</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6731</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14273</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21248</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27510</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26029</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35698</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29945</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>32807</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32760</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>49970</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3961; 16920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1987; 11649</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2192; 13838</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5823; 25372</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13595; 32121</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15953; 40708</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17248; 39339</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26211; 46388</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20169; 40745</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22336; 47410</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22459; 46121</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30103; 65139</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12563</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7624</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21517</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27417</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27013</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19527</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37866</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39980</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29955</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27151</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>59383</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5701; 20982</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7684</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3153; 15615</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14000; 30961</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18803; 38957</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17600; 38469</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12145; 29291</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30116; 47547</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29187; 56062</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20551; 41151</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17431; 38770</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48658; 72590</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7001</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12388</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36931</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28372</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21914</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26168</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>49307</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38517</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28915</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>38556</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6303; 21159</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4889; 18657</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3037; 13994</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7789; 19055</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26712; 49304</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>18073; 39927</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14363; 32684</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10671; 43163</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>36685; 61414</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27180; 55800</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18877; 41160</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21404; 53113</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17482</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8748</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11014</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>10392</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24088</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>47469</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26087</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>46637</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>41569</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>56217</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>37101</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>57029</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10702; 29212</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3312; 19611</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5998; 17877</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6415; 16329</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15635; 35666</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>35469; 62112</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16227; 39259</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>38181; 55665</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30894; 56697</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>42474; 74103</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25188; 51476</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46082; 67762</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>43343</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>68876</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>179686</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>213030</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>147085</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>181169</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>252963</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>258585</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>190428</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>250045</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>58615; 94985</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>34073; 61591</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>31640; 58547</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>50926; 86019</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>154147; 204663</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>185300; 243332</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>123591; 172901</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>148904; 206724</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>220429; 281987</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>227342; 292577</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>162858; 218963</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>212144; 284391</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>